--- a/CooperDi/6_lesson/game_theory_classwork_hw.xlsx
+++ b/CooperDi/6_lesson/game_theory_classwork_hw.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\CooperDi\6_lesson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10C9B9D-F167-4949-8FB3-A980B03A4592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B869888-061C-4AE2-A754-6D1BD909FB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 куча 2 действия" sheetId="1" r:id="rId1"/>
     <sheet name="1 куча 3 действия" sheetId="2" r:id="rId2"/>
-    <sheet name="471" sheetId="3" r:id="rId3"/>
+    <sheet name="471 новое усл. Не разбирали" sheetId="3" r:id="rId3"/>
     <sheet name="1863" sheetId="4" r:id="rId4"/>
     <sheet name="1972" sheetId="5" r:id="rId5"/>
     <sheet name="4679" sheetId="6" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="104">
   <si>
     <t>S</t>
   </si>
@@ -211,12 +211,6 @@
     <t xml:space="preserve"> при которых победа!</t>
   </si>
   <si>
-    <t>ЗНАЧЕНИЙ НЕТ!!!</t>
-  </si>
-  <si>
-    <t>Почему?</t>
-  </si>
-  <si>
     <t>Номер 21</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t xml:space="preserve">ОТВЕТ: </t>
   </si>
   <si>
-    <t>Почему 41 и 78?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -500,9 +491,6 @@
       </rPr>
       <t xml:space="preserve"> побеждает 2ым ходом</t>
     </r>
-  </si>
-  <si>
-    <t>ОТВЕТ: 7, 19</t>
   </si>
   <si>
     <t>Все 1ые ходы Вани не могут быть Зелёными</t>
@@ -643,23 +631,56 @@
     <t>19) Подразумевается мин S?</t>
   </si>
   <si>
-    <t>НЕТ! ТУТ ХОТЯТ max S!?</t>
-  </si>
-  <si>
     <t>ОТВЕТ: 16</t>
   </si>
   <si>
-    <t>ВЫВОД: У Пети в каждом Блоке всё должно быть Зелёным</t>
+    <t>НЕТ. ТАКИХ ЗНАЧЕНИЙ</t>
   </si>
   <si>
-    <t>НЕТ. ТАКИХ ЗНАЧЕНИЙ</t>
+    <t>ПОДХОДЯТ:</t>
+  </si>
+  <si>
+    <t>ОТВЕТ: 14</t>
+  </si>
+  <si>
+    <t>мин</t>
+  </si>
+  <si>
+    <t>макс</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Подходят:</t>
+  </si>
+  <si>
+    <t>7; 13</t>
+  </si>
+  <si>
+    <t>Подходящие S</t>
+  </si>
+  <si>
+    <t>ОТВЕТ: 7, 20</t>
+  </si>
+  <si>
+    <t>ВЫВОД: У Пети хотя бы в 1 Блоке всё должно быть Зелёным</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>ОТВЕТ: 8, 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +829,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1000,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1036,7 +1066,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1044,88 +1073,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="89">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1183,26 +1144,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1438,21 +1379,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1498,21 +1439,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1533,16 +1464,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1973,6 +1894,76 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4216,7 +4207,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>322209</xdr:colOff>
+      <xdr:colOff>150759</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>56619</xdr:rowOff>
     </xdr:to>
@@ -4603,7 +4594,7 @@
             <xdr14:cNvContentPartPr/>
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
+          <xdr14:xfrm rot="10470404">
             <a:off x="8143560" y="1028520"/>
             <a:ext cx="228240" cy="169920"/>
           </xdr14:xfrm>
@@ -5170,7 +5161,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>284199</xdr:colOff>
+      <xdr:colOff>112749</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>190395</xdr:rowOff>
     </xdr:to>
@@ -5384,6 +5375,146 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2514240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5914080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Рукописный ввод 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4957B8-63D3-4592-B482-2257D343FFEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2514240" y="3371535"/>
+            <a:ext cx="3399840" cy="77040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Рукописный ввод 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4957B8-63D3-4592-B482-2257D343FFEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2505600" y="3362895"/>
+              <a:ext cx="3417480" cy="94680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2999880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5853240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142980</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Рукописный ввод 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DB1415-06D2-44B9-A0FB-1160441855E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2999880" y="3581085"/>
+            <a:ext cx="2853360" cy="38520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Рукописный ввод 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DB1415-06D2-44B9-A0FB-1160441855E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2991240" y="3572445"/>
+              <a:ext cx="2871000" cy="56160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6210,7 +6341,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">213 108,'0'4,"-5"7,-1 5,1 9,0 5,2 2,1 0,1-1,-4-2,-1 0,0-2,2-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="516.54">1 240,'4'0,"7"0,5 0,10 0,4 0,6 0,6 0,5 0,-1 0,-4 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1142.09">583 240,'1'-1,"1"0,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1-1,1 1,0-2,15-39,-13 33,2-5,1-5,0-1,2 1,1 1,0-1,1 2,15-20,-29 44,1-1,0 1,0 0,1 1,-2 7,-5 14,-16 48,2 0,-20 137,40-183</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1142.08">583 240,'1'-1,"1"0,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1-1,1 1,0-2,15-39,-13 33,2-5,1-5,0-1,2 1,1 1,0-1,1 2,15-20,-29 44,1-1,0 1,0 0,1 1,-2 7,-5 14,-16 48,2 0,-20 137,40-183</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6521,6 +6652,60 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 31,'3'-3,"1"0,-1 1,1 0,0 0,0 0,-1 0,1 0,1 1,-1 0,0 0,0 0,5 0,59-3,-47 4,919-3,-476 6,983 17,-1122-17,51 1,80 33,139 5,-268-28,59 0,3621-15,-3981 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-04-09T07:21:44.022"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'46'2,"45"8,23 1,769-5,-475-9,869 3,-727 38,-376-20,264 4,-316-19,92 9,69 2,-157-14,14-2,233 28,-184 0,322 3,-117-28,339-8,-215-42,-285 21,245 3,293 27,-417-3,-332 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-04-09T07:24:07.249"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'170'13,"-21"-1,903-8,-537-7,-97 0,443 7,-413 22,-119-2,204 5,1566-30,-1502-25,47-1,-623 28,-11 0,0-1,0 0,0-1,0 0,13-3,-7-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6928,8 +7113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="M7:S40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7221,62 +7406,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P13:P14">
-    <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="12" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19:Q20">
-    <cfRule type="cellIs" dxfId="89" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="11" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21:Q22">
-    <cfRule type="cellIs" dxfId="88" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="10" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:P22">
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="9" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33:Q34">
-    <cfRule type="cellIs" dxfId="86" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="8" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35:Q36">
-    <cfRule type="cellIs" dxfId="85" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="7" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:P36">
-    <cfRule type="cellIs" dxfId="84" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="6" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37:Q38">
-    <cfRule type="cellIs" dxfId="83" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39:Q40">
-    <cfRule type="cellIs" dxfId="82" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="4" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:P40">
-    <cfRule type="cellIs" dxfId="81" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33:O40">
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:P40">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7289,7 +7474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531BC48-C7E0-447C-BC69-5448FD4A90B7}">
   <dimension ref="B25:O71"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
@@ -7938,147 +8123,147 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I26:I28">
-    <cfRule type="cellIs" dxfId="78" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="30" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H28 H33 H36 H39">
-    <cfRule type="cellIs" dxfId="77" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="29" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I35">
-    <cfRule type="cellIs" dxfId="76" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="27" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:I38">
-    <cfRule type="cellIs" dxfId="75" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="26" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I41">
-    <cfRule type="cellIs" dxfId="74" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="25" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J35">
-    <cfRule type="cellIs" dxfId="73" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:J38">
-    <cfRule type="cellIs" dxfId="72" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="23" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J41">
-    <cfRule type="cellIs" dxfId="71" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="22" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45 H48 H51">
-    <cfRule type="cellIs" dxfId="70" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="21" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:I47">
-    <cfRule type="cellIs" dxfId="69" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:I50">
-    <cfRule type="cellIs" dxfId="68" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="19" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I53">
-    <cfRule type="cellIs" dxfId="67" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="18" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:J47">
-    <cfRule type="cellIs" dxfId="66" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:J50">
-    <cfRule type="cellIs" dxfId="65" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:J53">
-    <cfRule type="cellIs" dxfId="64" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="15" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54 H57 H60">
-    <cfRule type="cellIs" dxfId="63" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I56">
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:I59">
-    <cfRule type="cellIs" dxfId="61" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:I62">
-    <cfRule type="cellIs" dxfId="60" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:J56">
-    <cfRule type="cellIs" dxfId="59" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:J59">
-    <cfRule type="cellIs" dxfId="58" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:J62">
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63 H66 H69">
-    <cfRule type="cellIs" dxfId="56" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I65">
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:I68">
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:I71">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J65">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66:J68">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:J71">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8094,8 +8279,8 @@
   </sheetPr>
   <dimension ref="B28:L36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8110,11 +8295,17 @@
       <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="H28" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>31</v>
       </c>
+      <c r="H29" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="J29" s="2" t="s">
         <v>0</v>
       </c>
@@ -8128,6 +8319,9 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>32</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>16</v>
       </c>
       <c r="J30">
         <v>15</v>
@@ -8183,15 +8377,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7872B1-C229-4252-801E-2ECB978426FA}">
   <sheetPr>
-    <tabColor theme="5"/>
+    <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="B25:O74"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -8200,9 +8397,6 @@
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G25" s="2" t="s">
         <v>0</v>
       </c>
@@ -8259,6 +8453,9 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="L29" s="24" t="s">
         <v>39</v>
       </c>
@@ -8431,23 +8628,23 @@
     </row>
     <row r="48" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G48">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H48" s="17">
         <f>G48+1</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48" s="18">
         <f>H48+1</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J48" s="18">
         <f>I48+1</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K48" s="19">
         <f t="shared" ref="K48:K74" si="1">J48*2</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N48" s="2"/>
     </row>
@@ -8455,11 +8652,11 @@
       <c r="H49" s="12"/>
       <c r="J49" s="4">
         <f>I48+4</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K49" s="13">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="8:15" x14ac:dyDescent="0.25">
@@ -8467,11 +8664,11 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4">
         <f>I48*2</f>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K50" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="N50" t="s">
         <v>44</v>
@@ -8481,15 +8678,15 @@
       <c r="H51" s="12"/>
       <c r="I51" s="4">
         <f>H48+4</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J51" s="4">
         <f>I51+1</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K51" s="13">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N51">
         <f>M35-1</f>
@@ -8505,11 +8702,11 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4">
         <f>I51+4</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K52" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="8:15" x14ac:dyDescent="0.25">
@@ -8517,26 +8714,26 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4">
         <f>I51*2</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K53" s="13">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H54" s="12"/>
       <c r="I54" s="4">
         <f>H48*2</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J54" s="4">
         <f>I54+1</f>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K54" s="13">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="8:15" x14ac:dyDescent="0.25">
@@ -8544,11 +8741,11 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4">
         <f>I54+4</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K55" s="13">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N55" s="26" t="s">
         <v>45</v>
@@ -8559,11 +8756,11 @@
       <c r="I56" s="15"/>
       <c r="J56" s="15">
         <f>I54*2</f>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K56" s="16">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="N56" s="27" t="s">
         <v>46</v>
@@ -8572,30 +8769,30 @@
     <row r="57" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H57" s="17">
         <f>G48+4</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I57" s="18">
         <f>H57+1</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J57" s="18">
         <f>I57+1</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K57" s="19">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H58" s="12"/>
       <c r="J58" s="4">
         <f>I57+4</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K58" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="8:15" x14ac:dyDescent="0.25">
@@ -8603,26 +8800,35 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4">
         <f>I57*2</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K59" s="13">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>88</v>
+      </c>
+      <c r="N59" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H60" s="12"/>
       <c r="I60" s="4">
         <f>H57+4</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J60" s="4">
         <f>I60+1</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K60" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="N60">
+        <v>14</v>
+      </c>
+      <c r="O60" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="8:15" x14ac:dyDescent="0.25">
@@ -8630,11 +8836,17 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4">
         <f>I60+4</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K61" s="13">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="N61">
+        <v>17</v>
+      </c>
+      <c r="O61" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="8:15" x14ac:dyDescent="0.25">
@@ -8642,26 +8854,29 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4">
         <f>I60*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K62" s="13">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H63" s="12"/>
       <c r="I63" s="4">
         <f>H57*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J63" s="4">
         <f>I63+1</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K63" s="13">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>86</v>
+      </c>
+      <c r="N63" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="8:15" x14ac:dyDescent="0.25">
@@ -8669,11 +8884,11 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4">
         <f>I63+4</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K64" s="13">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8681,40 +8896,40 @@
       <c r="I65" s="15"/>
       <c r="J65" s="15">
         <f>I63*2</f>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K65" s="16">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H66" s="17">
         <f>G48*2</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I66" s="18">
         <f>H66+1</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J66" s="18">
         <f>I66+1</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K66" s="19">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H67" s="12"/>
       <c r="J67" s="4">
         <f>I66+4</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K67" s="13">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="8:11" x14ac:dyDescent="0.25">
@@ -8722,26 +8937,26 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4">
         <f>I66*2</f>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="K68" s="13">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H69" s="12"/>
       <c r="I69" s="4">
         <f>H66+4</f>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J69" s="4">
         <f>I69+1</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K69" s="13">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="8:11" x14ac:dyDescent="0.25">
@@ -8749,11 +8964,11 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4">
         <f>I69+4</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K70" s="13">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="8:11" x14ac:dyDescent="0.25">
@@ -8761,26 +8976,26 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4">
         <f>I69*2</f>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="K71" s="13">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H72" s="12"/>
       <c r="I72" s="4">
         <f>H66*2</f>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="J72" s="4">
         <f>I72+1</f>
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="K72" s="13">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="8:11" x14ac:dyDescent="0.25">
@@ -8788,11 +9003,11 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4">
         <f>I72+4</f>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K73" s="13">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8800,46 +9015,36 @@
       <c r="I74" s="15"/>
       <c r="J74" s="15">
         <f>I72*2</f>
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="K74" s="16">
         <f t="shared" si="1"/>
-        <v>176</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I26:I28">
-    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
-      <formula>39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I40 I48 I51 I54">
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
       <formula>39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J40">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="greaterThan">
-      <formula>39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57 I60 I63">
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="greaterThan">
-      <formula>39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66 I69 I72">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
       <formula>39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:J74">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
       <formula>39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:K74">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
+      <formula>39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I74">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="greaterThan">
       <formula>39</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8850,10 +9055,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D873E6-C355-4146-A192-779D424C756B}">
-  <dimension ref="A39:K80"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A39:M80"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8862,32 +9070,32 @@
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F48" s="2" t="s">
         <v>0</v>
       </c>
@@ -8900,8 +9108,11 @@
       <c r="K48" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>14</v>
       </c>
@@ -8914,7 +9125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G50">
         <f>F49*2</f>
         <v>28</v>
@@ -8924,7 +9135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:9" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B62" s="28" t="s">
         <v>52</v>
       </c>
@@ -8940,38 +9151,47 @@
       <c r="I62" s="28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M62" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B63" s="32" t="s">
         <v>54</v>
       </c>
       <c r="F63">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G63">
         <f>F63+1</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H63">
         <f>G63+1</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I63">
         <f>H63*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="M63" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>55</v>
       </c>
       <c r="H64">
         <f>G63*2</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I64">
         <f t="shared" ref="I64:I66" si="0">H64*2</f>
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="M64" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -8980,68 +9200,63 @@
       </c>
       <c r="G65">
         <f>F63*2</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H65">
         <f>G65+1</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H66">
         <f>G65*2</f>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E68" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
-        <v>57</v>
+      <c r="F68" s="42" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B80" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H49:H55">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:G55">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G66">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
+      <formula>28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:I66">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H66">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThan">
-      <formula>26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I66">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9052,21 +9267,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8DD30-7B6B-4A86-988D-7A0149F4E9BB}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="113" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9080,25 +9298,25 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9110,8 +9328,8 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39"/>
-      <c r="B11" s="34" t="s">
-        <v>60</v>
+      <c r="B11" s="33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9119,29 +9337,29 @@
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15">
         <v>82</v>
@@ -9158,7 +9376,7 @@
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16">
         <f>H15+4</f>
@@ -9185,8 +9403,8 @@
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
-      <c r="B19" s="36" t="s">
-        <v>64</v>
+      <c r="B19" s="35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9194,146 +9412,146 @@
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" s="17">
         <f>F22+1</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" s="18">
         <f>G22+1</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" s="19">
         <f>H22*2</f>
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="4">
         <f>G22+4</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" ref="I23:I30" si="1">H23*2</f>
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39"/>
-      <c r="B24" s="34" t="s">
-        <v>66</v>
+      <c r="B24" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="15">
         <f>G22*2</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="1"/>
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="17">
         <f>F22+4</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" s="18">
         <f>G25+1</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I25" s="19">
         <f>H25*2</f>
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
-      <c r="B26" s="37" t="s">
-        <v>67</v>
+      <c r="B26" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="4">
         <f>G25+4</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I26" s="13">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39"/>
-      <c r="B27" s="37" t="s">
-        <v>68</v>
+      <c r="B27" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="15">
         <f>G25*2</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="G28" s="17">
         <f>F22*2</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H28" s="18">
         <f>G28+1</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I28" s="19">
         <f>H28*2</f>
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
-      <c r="B29" s="34" t="s">
-        <v>70</v>
+      <c r="B29" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="4">
         <f>G28+4</f>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I29" s="13">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9341,14 +9559,17 @@
       <c r="B30" s="32">
         <v>41</v>
       </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="15">
         <f>G28*2</f>
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="1"/>
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -9356,19 +9577,19 @@
       <c r="B31" s="32">
         <v>78</v>
       </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
-      <c r="B32" s="34" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="39"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9425,42 +9646,42 @@
     <mergeCell ref="A1:A50"/>
   </mergeCells>
   <conditionalFormatting sqref="J15:J17">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I24">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H24">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I27">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H27">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I30">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H30">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>164</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9470,10 +9691,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96942EA7-3E5A-4904-BE21-81B2F2394BD1}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9484,70 +9708,70 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
-      <c r="B4" s="35" t="s">
-        <v>73</v>
+      <c r="B4" s="34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
-      <c r="B8" s="34" t="s">
-        <v>74</v>
+      <c r="B8" s="33" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
-      <c r="B9" s="34"/>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H11">
         <v>21</v>
@@ -9564,7 +9788,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I12">
         <f>H11+2</f>
@@ -9578,7 +9802,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <f>H11*3</f>
@@ -9594,8 +9818,11 @@
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
-      <c r="B15" s="36" t="s">
-        <v>77</v>
+      <c r="B15" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -9603,56 +9830,56 @@
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="4">
         <f>H18+1</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="4">
         <f>I18+1</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" s="4">
         <f>J18*3</f>
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4">
         <f>I18+2</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" ref="K19:K26" si="1">J19*3</f>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -9660,138 +9887,153 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4">
         <f>I18*3</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I21" s="4">
         <f>H18+2</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" s="4">
         <f>I21+1</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
-      <c r="B22" s="38" t="s">
-        <v>80</v>
+      <c r="B22" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4">
         <f>I21+2</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
-      <c r="B23">
-        <v>7</v>
+      <c r="B23" t="s">
+        <v>98</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4">
         <f>I21*3</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
       </c>
       <c r="I24" s="4">
         <f>H18*3</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J24" s="4">
         <f>I24+1</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="1"/>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
-      <c r="B25" s="36" t="s">
-        <v>82</v>
+      <c r="B25">
+        <v>19</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4">
         <f>I24+2</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4">
         <f>I24*3</f>
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="1"/>
-        <v>513</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
-      <c r="M28" s="38"/>
+      <c r="B28" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39"/>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K29" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G30">
         <v>18</v>
@@ -9829,7 +10071,7 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="4"/>
@@ -9845,7 +10087,7 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="4">
@@ -9877,7 +10119,7 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="4"/>
@@ -9921,8 +10163,11 @@
     </row>
     <row r="38" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="39"/>
-      <c r="B38" s="36" t="s">
-        <v>87</v>
+      <c r="B38" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="15"/>
@@ -10192,85 +10437,89 @@
     <mergeCell ref="A1:A50"/>
   </mergeCells>
   <conditionalFormatting sqref="J11:J13">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I26">
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K26">
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:J26">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K38">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J38">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K47">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J47">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:K56">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:J56">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:I56">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>64</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED332B-AA47-43CE-94C4-D51CFF75607E}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10282,10 +10531,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -10293,63 +10542,63 @@
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
-      <c r="B5" s="35" t="s">
-        <v>73</v>
+      <c r="B5" s="34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
-      <c r="B6" s="35" t="s">
-        <v>90</v>
+      <c r="B6" s="34" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
-      <c r="B8" s="34" t="s">
-        <v>88</v>
+      <c r="B8" s="33" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
-      <c r="B9" s="38"/>
+      <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
-      <c r="B10" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="34" t="s">
+      <c r="B10" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H11">
         <v>16</v>
@@ -10359,28 +10608,28 @@
         <v>17</v>
       </c>
       <c r="J11">
-        <f>I11*3</f>
-        <v>51</v>
+        <f>I11*2</f>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I12">
         <f>H11+2</f>
         <v>18</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J14" si="0">I12*3</f>
-        <v>54</v>
+        <f t="shared" ref="J12:J14" si="0">I12*2</f>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <f>H11+3</f>
@@ -10388,27 +10637,28 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
-      <c r="B14" s="41" t="s">
-        <v>93</v>
-      </c>
+      <c r="B14" s="38"/>
       <c r="I14">
         <f>H11*2</f>
         <v>32</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
-      <c r="B15" s="36" t="s">
-        <v>94</v>
+      <c r="B15" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10416,246 +10666,264 @@
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I18" s="4">
         <f>H18+1</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J18">
         <f>I18+1</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <f>J18*2</f>
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19">
         <f>I18+2</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19:K33" si="1">J19*2</f>
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20">
         <f>I18+3</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J21">
         <f>I18*2</f>
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
-      <c r="B22" s="2" t="s">
-        <v>79</v>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
       </c>
       <c r="I22" s="4">
         <f>H18+2</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <f>I22+1</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
-      <c r="B23" s="38" t="s">
-        <v>80</v>
+      <c r="B23">
+        <v>13</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23">
         <f>I22+2</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
+      <c r="B24">
+        <v>14</v>
+      </c>
       <c r="J24">
         <f>I22+3</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25">
         <f>I22*2</f>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
-      <c r="B26" s="36" t="s">
-        <v>70</v>
-      </c>
       <c r="I26" s="4">
         <f>H18+3</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J26">
         <f>I26+1</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
-      <c r="B27" s="41" t="s">
-        <v>96</v>
-      </c>
       <c r="J27">
         <f>I26+2</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="J28">
         <f>I26+3</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="M28" s="38"/>
+        <v>28</v>
+      </c>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
+      <c r="B29" s="37" t="s">
+        <v>77</v>
+      </c>
       <c r="J29">
         <f>I26*2</f>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
+      <c r="B30" s="35" t="s">
+        <v>103</v>
+      </c>
       <c r="I30">
         <f>H18*2</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J30">
         <f>I30+1</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
+      <c r="B31" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="J31">
         <f>I30+2</f>
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="J32">
         <f>I30+3</f>
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="J33">
         <f>I30*2</f>
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10685,8 +10953,8 @@
     </row>
     <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="39"/>
-      <c r="B43" s="36" t="s">
-        <v>70</v>
+      <c r="B43" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -10714,46 +10982,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A50"/>
   </mergeCells>
-  <conditionalFormatting sqref="J11:J13">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
-      <formula>33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+  <conditionalFormatting sqref="J11:J14">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="greaterThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I14">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:J21">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="greaterThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J25">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J29">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="greaterThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J33">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K33">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
       <formula>33</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>